--- a/converter_PDF_XLSX/relatorio_ocorrencia_geral.xlsx
+++ b/converter_PDF_XLSX/relatorio_ocorrencia_geral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,11 +435,11 @@
   <cols>
     <col width="144" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="38" customWidth="1" min="7" max="7"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -492,22 +492,22 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.981-3</t>
+          <t>27.902-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CRISTIANO CARBONI DE CAMPOS</t>
+          <t>ADRIANO PEREZ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10/09/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>01/09/2025</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -517,70 +517,62 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Férias Regulamentares</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>21.661-5</t>
+          <t>26.212-9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DAYANE GABRIELE BORTOLETO</t>
+          <t>ANDERSON ALVES MIRANDA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15/01/2025</t>
+          <t>04/09/2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31/12/2028</t>
+          <t>04/09/2025</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.447</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Afastamento Por
-Nomeação Em
-Comissão</t>
+          <t>Abono</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12.322-5</t>
+          <t>26.212-9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FABIANA CRISTINA BRANDÃO
-MACHADO</t>
+          <t>ANDERSON ALVES MIRANDA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11/09/2025</t>
+          <t>05/09/2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11/09/2025</t>
+          <t>05/09/2025</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -597,449 +589,447 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE RESÍDUOS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.322-5</t>
+          <t>21.627-5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FABIANA CRISTINA BRANDÃO
-MACHADO</t>
+          <t>ADALBERTO APARECIDO
+GONÇALVES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12/09/2025</t>
+          <t>30/07/2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12/09/2025</t>
+          <t>19/02/2026</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>205</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Tratamento De
+Saúde</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE RESÍDUOS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08.009-6</t>
+          <t>12.577-4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FABIANE APARECIDA RIBEIRO</t>
+          <t>CELISE DE OLIVEIRA ROMANINI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>04/09/2025</t>
+          <t>25/08/2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>04/09/2025</t>
+          <t>08/09/2025</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Tratamento De
+Saúde</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE RESÍDUOS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08.009-6</t>
+          <t>09.534-4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FABIANE APARECIDA RIBEIRO</t>
+          <t>GERALDO JOSE GIUSTI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>09/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09/09/2025</t>
+          <t>14/10/2025</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE RESÍDUOS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10.117-7</t>
+          <t>19.211-5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JOSE ROBERTO DA SILVA</t>
+          <t>MAYARA CRISTINA MUNIZ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26/09/2025</t>
+          <t>03/10/2025</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE RESÍDUOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10.117-7</t>
+          <t>09.550-7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JOSE ROBERTO DA SILVA</t>
+          <t>PAULO CESAR RODRIGUES DE
+MORAES</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>01/09/2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE ÁREAS VERDES</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29.363-6</t>
+          <t>09.692-6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LAURA FEOLA</t>
+          <t>MAURICIO ANGELOCCI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tratamento De Saúde</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE ÁREAS VERDES</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27.603-0</t>
+          <t>05.217-8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RAFAEL FEREZINI</t>
+          <t>SINVAL DE JESUS SARTO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19/09/2025</t>
+          <t>08/09/2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Abono Eleitoral</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20.092-1</t>
+          <t>13.477-7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RAQUEL SANFINS FREIRE</t>
+          <t>ADILSON PEREIRA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08/09/2025</t>
+          <t>01/08/2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>14/09/2025</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Férias Regulamentares</t>
+          <t>Tratamento De
+Saúde</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25.010-4</t>
+          <t>13.477-7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RENATO MICHELIN SANCHES DE
-OLIVEIRA BORGHI</t>
+          <t>ADILSON PEREIRA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08/01/2027</t>
+          <t>28/09/2025</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Afastamento Sem
-Vencimentos</t>
+          <t>Tratamento De
+Saúde</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16.572-6</t>
+          <t>13.477-7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SILVIO DE SOUZA</t>
+          <t>ADILSON PEREIRA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08/09/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26/09/2025</t>
+          <t>28/10/2025</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Férias Regulamentares</t>
+          <t>Tratamento De
+Saúde</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DIVISÃO DE ESPAÇOS
-CULTURAIS</t>
+          <t>DIVISÃO DE FISCALIZAÇÃO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27.641-3</t>
+          <t>27.178-0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VLAMIR EDVALDO DIAS JUNIOR</t>
+          <t>FERNANDO CHIARINI MONTEIRO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>05/09/2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15/10/2025</t>
+          <t>19/09/2025</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Férias Regulamentares</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DIVISÃO DE
-PLANEJAMENTO</t>
+          <t>DIVISÃO DE DRENAGEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21.454-0</t>
+          <t>16.459-2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PAULA LINO MENDES DA CRUZ</t>
+          <t>CLAUDIO CRISTIANO ANTUNES</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11/08/2025</t>
+          <t>08/09/2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09/09/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1049,128 +1039,1459 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Férias Regulamentares</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DIVISÃO DE
-PLANEJAMENTO</t>
+          <t>DIVISÃO DE DRENAGEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21.454-0</t>
+          <t>24.886-0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PAULA LINO MENDES DA CRUZ</t>
+          <t>HUDSON DUARTE SILVA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Gestante / Maternidade</t>
+          <t>Tratamento De
+Saúde</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DIVISÃO DE IGUALDADE
-RACIAL</t>
+          <t>DIVISÃO DE DRENAGEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>91.244-1</t>
+          <t>15.809-1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BRUNA GRAZIELA DO CARMO TOGNI</t>
+          <t>JOSE AUGUSTO DOS SANTOS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12/09/2025</t>
+          <t>02/01/2023</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26/09/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1.046</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tratamento De Saúde</t>
+          <t>Auxílio Doença</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DIVISÃO DE IGUALDADE
-RACIAL</t>
+          <t>DIVISÃO DE DRENAGEM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>91.244-1</t>
+          <t>27.207-8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BRUNA GRAZIELA DO CARMO TOGNI</t>
+          <t>RONALDO SANTOS DE ALMEIDA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27/09/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30/11/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auxílio Doença</t>
+          <t>Férias
+Regulamentares</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>DIVISÃO DE DRENAGEM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08.593-2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SEVERINO AUGUSTO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE DRENAGEM</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16.576-7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>WILSON JORGE VIANA DIAS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE DRENAGEM</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.576-7</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WILSON JORGE VIANA DIAS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PAVIMENTO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>15.946-1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DARIO ELSNER SCHIKIERSKI</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PAVIMENTO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24.921-1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>JOSE ORLANDO ARAUJO SILVA
+GOMES</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE PIRACICABA
+Secretaria Municipal Administração - SEMAD
+Relatório Ocorrência Geral
+Referente: 01/09/2025 a 30/09/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PAVIMENTO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28.582-0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>JULIANA SOARES LEMES
+CORREIA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PAVIMENTO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>28.582-0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JULIANA SOARES LEMES
+CORREIA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PAVIMENTO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>28.582-0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>JULIANA SOARES LEMES
+CORREIA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PAVIMENTO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>29.807-7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MARCELO DE FREITAS RIBEIRO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Ausência
+Injustificada</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PAVIMENTO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>15.670-7</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RICARDO CÉSAR SOARES</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PRÓPRIOS
+MUNICIPAIS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>14.720-3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LUIS HENRIQUE CAPUCIM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PRÓPRIOS
+MUNICIPAIS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>26.523-3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MARISA DE ALMEIDA LEME</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12.075-6</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ALBERTO WAGNER COMITRE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21/08/2025</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Tratamento De
+Saúde</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12.075-6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ALBERTO WAGNER COMITRE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Tratamento De
+Saúde</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12.075-6</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ALBERTO WAGNER COMITRE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Tratamento De
+Saúde</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>26.233-1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GUSTAVO TAVARES ALVES</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>28.491-2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JOAO BRUNO SAMPAIO SALTINI
+PESCHKE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>28.491-2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>JOAO BRUNO SAMPAIO SALTINI
+PESCHKE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>28.491-2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>JOAO BRUNO SAMPAIO SALTINI
+PESCHKE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>24.985-8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PAULO HENRIQUE GUARDA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>24.922-0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>WELLINGTON RODRIGUES
+BONAMI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE ELÉTRICA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>24.922-0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>WELLINGTON RODRIGUES
+BONAMI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE USO E OCUPAÇÃO
+DO SOLO</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>28.598-6</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GABRIELA PAULA GONCALVES</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE USO E OCUPAÇÃO
+DO SOLO</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>28.598-6</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GABRIELA PAULA GONCALVES</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE USO E OCUPAÇÃO
+DO SOLO</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>09.729-9</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LAERTE PADILHA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE PIRACICABA
+Secretaria Municipal Administração - SEMAD
+Relatório Ocorrência Geral
+Referente: 01/09/2025 a 30/09/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE USO E OCUPAÇÃO
+DO SOLO</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>27.705-3</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LETICIA VIEIRA DA SILVA
+STECKELBERG</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE USO E OCUPAÇÃO
+DO SOLO</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>27.705-3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>LETICIA VIEIRA DA SILVA
+STECKELBERG</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE FISCALIZAÇÃO
+URBANÍSTICA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>28.592-7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIEGO ALVES EDUARDO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12/09/2025</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12/09/2025</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE FISCALIZAÇÃO
+URBANÍSTICA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>28.592-7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIEGO ALVES EDUARDO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE FISCALIZAÇÃO
+URBANÍSTICA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10.914-9</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FERNANDO JOSE ROSSI</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Férias Prêmio</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE FISCALIZAÇÃO
+URBANÍSTICA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10.914-9</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FERNANDO JOSE ROSSI</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Férias Prêmio</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE FISCALIZAÇÃO
+URBANÍSTICA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>14.722-8</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>LEONARDO FRANCO TOTTI</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>05/09/2025</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Tratamento De
+Saúde</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE FISCALIZAÇÃO
+URBANÍSTICA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20.767-5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>THIAGO CANTON</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DIVISÃO DE PLANEJAMENTO
+URBANO</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>27.994-3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LUCAS HENRIQUE LOPES
+ROMERO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Férias
+Regulamentares</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
     </row>
